--- a/Imitate-Soul-Knight-Project/配置表/敌人配置.xlsx
+++ b/Imitate-Soul-Knight-Project/配置表/敌人配置.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24527"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\anyue\unityworkstation\Imitate-Soul-Knight\Imitate-Soul-Knight-Project\配置表\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UnityWork\Imitate-Soul-Knight\Imitate-Soul-Knight-Project\配置表\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEF8F8D5-E4C9-45B4-B5A8-70BBBB4AB9DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03CB0982-4D45-40BA-85B3-96B258C8284A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="enemyList" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="19">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -84,6 +84,22 @@
   </si>
   <si>
     <t>怪如其名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>url</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>路径</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Role/Enemy/lanJingGuai</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -421,23 +437,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K5" sqref="K5"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="11.25" style="1" customWidth="1"/>
-    <col min="2" max="2" width="17.375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="15.875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="17.33203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="15.83203125" style="1" customWidth="1"/>
     <col min="4" max="4" width="15.5" style="1" customWidth="1"/>
     <col min="5" max="5" width="14.5" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="9" style="1"/>
+    <col min="6" max="6" width="19.25" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -453,8 +470,11 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="F1" s="1" t="s">
+        <v>15</v>
+      </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>11</v>
       </c>
@@ -470,8 +490,11 @@
       <c r="E2" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="F2" s="1" t="s">
+        <v>16</v>
+      </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>5</v>
       </c>
@@ -487,8 +510,11 @@
       <c r="E3" s="2" t="s">
         <v>9</v>
       </c>
+      <c r="F3" s="2" t="s">
+        <v>17</v>
+      </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>1</v>
       </c>
@@ -503,6 +529,9 @@
       </c>
       <c r="E4" s="1">
         <v>100</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/Imitate-Soul-Knight-Project/配置表/敌人配置.xlsx
+++ b/Imitate-Soul-Knight-Project/配置表/敌人配置.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UnityWork\Imitate-Soul-Knight\Imitate-Soul-Knight-Project\配置表\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\anyue\unityworkstation\Imitate-Soul-Knight\Imitate-Soul-Knight-Project\配置表\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03CB0982-4D45-40BA-85B3-96B258C8284A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1139908-38E2-4D10-A5C7-1B9F451FAD3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="enemyList" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="25">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -100,6 +100,30 @@
   </si>
   <si>
     <t>Role/Enemy/lanJingGuai</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>minAttackDistance</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>maxAttackDistance</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最小攻击距离</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最大攻击距离</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>moveSpeed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>移速</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -437,24 +461,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:I4"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="11.25" style="1" customWidth="1"/>
-    <col min="2" max="2" width="17.33203125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="15.83203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="17.375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="15.875" style="1" customWidth="1"/>
     <col min="4" max="4" width="15.5" style="1" customWidth="1"/>
     <col min="5" max="5" width="14.5" style="1" customWidth="1"/>
     <col min="6" max="6" width="19.25" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="9" style="1"/>
+    <col min="7" max="7" width="18.5" style="1" customWidth="1"/>
+    <col min="8" max="8" width="17.5" style="1" customWidth="1"/>
+    <col min="9" max="9" width="14.375" style="1" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -473,8 +500,17 @@
       <c r="F1" s="1" t="s">
         <v>15</v>
       </c>
+      <c r="G1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>23</v>
+      </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>11</v>
       </c>
@@ -493,8 +529,17 @@
       <c r="F2" s="1" t="s">
         <v>16</v>
       </c>
+      <c r="G2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>13</v>
+      </c>
     </row>
-    <row r="3" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>5</v>
       </c>
@@ -513,8 +558,17 @@
       <c r="F3" s="2" t="s">
         <v>17</v>
       </c>
+      <c r="G3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>24</v>
+      </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>1</v>
       </c>
@@ -532,6 +586,15 @@
       </c>
       <c r="F4" s="1" t="s">
         <v>18</v>
+      </c>
+      <c r="G4" s="1">
+        <v>3</v>
+      </c>
+      <c r="H4" s="1">
+        <v>6</v>
+      </c>
+      <c r="I4" s="1">
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/Imitate-Soul-Knight-Project/配置表/敌人配置.xlsx
+++ b/Imitate-Soul-Knight-Project/配置表/敌人配置.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\anyue\unityworkstation\Imitate-Soul-Knight\Imitate-Soul-Knight-Project\配置表\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UnityWork\Imitate-Soul-Knight\Imitate-Soul-Knight-Project\配置表\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1139908-38E2-4D10-A5C7-1B9F451FAD3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2128D092-8CEC-4AF2-A625-69AA1748457D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="enemyList" sheetId="1" r:id="rId1"/>
@@ -464,24 +464,24 @@
   <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="11.25" style="1" customWidth="1"/>
-    <col min="2" max="2" width="17.375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="15.875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="17.33203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="15.83203125" style="1" customWidth="1"/>
     <col min="4" max="4" width="15.5" style="1" customWidth="1"/>
     <col min="5" max="5" width="14.5" style="1" customWidth="1"/>
     <col min="6" max="6" width="19.25" style="1" customWidth="1"/>
     <col min="7" max="7" width="18.5" style="1" customWidth="1"/>
     <col min="8" max="8" width="17.5" style="1" customWidth="1"/>
-    <col min="9" max="9" width="14.375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="14.33203125" style="1" customWidth="1"/>
     <col min="10" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -510,7 +510,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>11</v>
       </c>
@@ -539,7 +539,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>5</v>
       </c>
@@ -568,7 +568,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>1</v>
       </c>
@@ -588,10 +588,10 @@
         <v>18</v>
       </c>
       <c r="G4" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H4" s="1">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I4" s="1">
         <v>3</v>

--- a/Imitate-Soul-Knight-Project/配置表/敌人配置.xlsx
+++ b/Imitate-Soul-Knight-Project/配置表/敌人配置.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UnityWork\Imitate-Soul-Knight\Imitate-Soul-Knight-Project\配置表\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\anyue\unityworkstation\Imitate-Soul-Knight\Imitate-Soul-Knight-Project\配置表\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2128D092-8CEC-4AF2-A625-69AA1748457D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B66D2A11-4FD9-4FBC-B136-1999FAE73DC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="enemyList" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="28">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -124,6 +124,18 @@
   </si>
   <si>
     <t>移速</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bulletUrl</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>子弹路径</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bullet/bullet_33</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -461,27 +473,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I4"/>
+  <dimension ref="A1:J4"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="11.25" style="1" customWidth="1"/>
-    <col min="2" max="2" width="17.33203125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="15.83203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="17.375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="15.875" style="1" customWidth="1"/>
     <col min="4" max="4" width="15.5" style="1" customWidth="1"/>
     <col min="5" max="5" width="14.5" style="1" customWidth="1"/>
     <col min="6" max="6" width="19.25" style="1" customWidth="1"/>
     <col min="7" max="7" width="18.5" style="1" customWidth="1"/>
     <col min="8" max="8" width="17.5" style="1" customWidth="1"/>
-    <col min="9" max="9" width="14.33203125" style="1" customWidth="1"/>
-    <col min="10" max="16384" width="9" style="1"/>
+    <col min="9" max="9" width="14.375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="14.5" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -509,8 +522,11 @@
       <c r="I1" s="1" t="s">
         <v>23</v>
       </c>
+      <c r="J1" s="1" t="s">
+        <v>25</v>
+      </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>11</v>
       </c>
@@ -538,8 +554,11 @@
       <c r="I2" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="J2" s="1" t="s">
+        <v>12</v>
+      </c>
     </row>
-    <row r="3" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>5</v>
       </c>
@@ -567,8 +586,11 @@
       <c r="I3" s="2" t="s">
         <v>24</v>
       </c>
+      <c r="J3" s="2" t="s">
+        <v>26</v>
+      </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>1</v>
       </c>
@@ -595,6 +617,9 @@
       </c>
       <c r="I4" s="1">
         <v>3</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>

--- a/Imitate-Soul-Knight-Project/配置表/敌人配置.xlsx
+++ b/Imitate-Soul-Knight-Project/配置表/敌人配置.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\anyue\unityworkstation\Imitate-Soul-Knight\Imitate-Soul-Knight-Project\配置表\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UnityWork\Imitate-Soul-Knight\Imitate-Soul-Knight-Project\配置表\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B66D2A11-4FD9-4FBC-B136-1999FAE73DC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{814D260B-F186-4A4D-98B6-235C419D82CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="enemyList" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="31">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -136,6 +136,18 @@
   </si>
   <si>
     <t>Bullet/bullet_33</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bulletSpeed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>float</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>子弹速度</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -473,28 +485,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J4"/>
+  <dimension ref="A1:K4"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+      <selection activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="11.25" style="1" customWidth="1"/>
-    <col min="2" max="2" width="17.375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="15.875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="17.33203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="15.83203125" style="1" customWidth="1"/>
     <col min="4" max="4" width="15.5" style="1" customWidth="1"/>
     <col min="5" max="5" width="14.5" style="1" customWidth="1"/>
     <col min="6" max="6" width="19.25" style="1" customWidth="1"/>
     <col min="7" max="7" width="18.5" style="1" customWidth="1"/>
     <col min="8" max="8" width="17.5" style="1" customWidth="1"/>
-    <col min="9" max="9" width="14.375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="14.33203125" style="1" customWidth="1"/>
     <col min="10" max="10" width="14.5" style="1" customWidth="1"/>
     <col min="11" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -525,8 +537,11 @@
       <c r="J1" s="1" t="s">
         <v>25</v>
       </c>
+      <c r="K1" s="1" t="s">
+        <v>28</v>
+      </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>11</v>
       </c>
@@ -557,8 +572,11 @@
       <c r="J2" s="1" t="s">
         <v>12</v>
       </c>
+      <c r="K2" s="1" t="s">
+        <v>29</v>
+      </c>
     </row>
-    <row r="3" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>5</v>
       </c>
@@ -589,8 +607,11 @@
       <c r="J3" s="2" t="s">
         <v>26</v>
       </c>
+      <c r="K3" s="2" t="s">
+        <v>30</v>
+      </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>1</v>
       </c>
@@ -620,6 +641,9 @@
       </c>
       <c r="J4" s="1" t="s">
         <v>27</v>
+      </c>
+      <c r="K4" s="1">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/Imitate-Soul-Knight-Project/配置表/敌人配置.xlsx
+++ b/Imitate-Soul-Knight-Project/配置表/敌人配置.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UnityWork\Imitate-Soul-Knight\Imitate-Soul-Knight-Project\配置表\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{814D260B-F186-4A4D-98B6-235C419D82CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1626D67-8E9E-4BAD-B3EE-4E8E1994EECA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -488,7 +488,7 @@
   <dimension ref="A1:K4"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="L6" sqref="L6"/>
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -637,7 +637,7 @@
         <v>4</v>
       </c>
       <c r="I4" s="1">
-        <v>3</v>
+        <v>0.8</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>27</v>

--- a/Imitate-Soul-Knight-Project/配置表/敌人配置.xlsx
+++ b/Imitate-Soul-Knight-Project/配置表/敌人配置.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UnityWork\Imitate-Soul-Knight\Imitate-Soul-Knight-Project\配置表\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\anyue\unityworkstation\Imitate-Soul-Knight\Imitate-Soul-Knight-Project\配置表\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1626D67-8E9E-4BAD-B3EE-4E8E1994EECA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A687E7B-6BA0-4CED-A5AD-A275565CB96C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="enemyList" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="35">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -148,6 +148,22 @@
   </si>
   <si>
     <t>子弹速度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sprintSpeed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>冲刺速度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>野猪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Role/Enemy/yeZhu</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -485,28 +501,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K4"/>
+  <dimension ref="A1:L5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="11.25" style="1" customWidth="1"/>
-    <col min="2" max="2" width="17.33203125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="15.83203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="17.375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="15.875" style="1" customWidth="1"/>
     <col min="4" max="4" width="15.5" style="1" customWidth="1"/>
     <col min="5" max="5" width="14.5" style="1" customWidth="1"/>
     <col min="6" max="6" width="19.25" style="1" customWidth="1"/>
     <col min="7" max="7" width="18.5" style="1" customWidth="1"/>
     <col min="8" max="8" width="17.5" style="1" customWidth="1"/>
-    <col min="9" max="9" width="14.33203125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="14.375" style="1" customWidth="1"/>
     <col min="10" max="10" width="14.5" style="1" customWidth="1"/>
-    <col min="11" max="16384" width="9" style="1"/>
+    <col min="11" max="12" width="11.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -540,8 +557,11 @@
       <c r="K1" s="1" t="s">
         <v>28</v>
       </c>
+      <c r="L1" s="1" t="s">
+        <v>31</v>
+      </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>11</v>
       </c>
@@ -575,8 +595,11 @@
       <c r="K2" s="1" t="s">
         <v>29</v>
       </c>
+      <c r="L2" s="1" t="s">
+        <v>13</v>
+      </c>
     </row>
-    <row r="3" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>5</v>
       </c>
@@ -610,8 +633,11 @@
       <c r="K3" s="2" t="s">
         <v>30</v>
       </c>
+      <c r="L3" s="2" t="s">
+        <v>32</v>
+      </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>1</v>
       </c>
@@ -644,6 +670,35 @@
       </c>
       <c r="K4" s="1">
         <v>5</v>
+      </c>
+      <c r="L4" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A5" s="1">
+        <v>2</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="1">
+        <v>12</v>
+      </c>
+      <c r="E5" s="1">
+        <v>120</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I5" s="1">
+        <v>1</v>
+      </c>
+      <c r="L5" s="1">
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/Imitate-Soul-Knight-Project/配置表/敌人配置.xlsx
+++ b/Imitate-Soul-Knight-Project/配置表/敌人配置.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\anyue\unityworkstation\Imitate-Soul-Knight\Imitate-Soul-Knight-Project\配置表\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A687E7B-6BA0-4CED-A5AD-A275565CB96C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9E6398C-6EEB-4650-8610-DB834B6E5D9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -503,8 +503,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L5"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -648,7 +648,7 @@
         <v>14</v>
       </c>
       <c r="D4" s="1">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="E4" s="1">
         <v>100</v>
@@ -686,7 +686,7 @@
         <v>14</v>
       </c>
       <c r="D5" s="1">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="E5" s="1">
         <v>120</v>
